--- a/slide19/data/Вихідні данні слайд19.xlsx
+++ b/slide19/data/Вихідні данні слайд19.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Розподіл витрат" sheetId="5" r:id="rId1"/>
-    <sheet name="Баланс_2015_2017" sheetId="12" r:id="rId2"/>
+    <sheet name="Баланс_2015_2017" sheetId="12" r:id="rId1"/>
+    <sheet name="Розподіл витрат" sheetId="5" r:id="rId2"/>
     <sheet name="Баланс_2014" sheetId="2" r:id="rId3"/>
     <sheet name=" План_факт_2013" sheetId="4" r:id="rId4"/>
     <sheet name="Розподіл_2013" sheetId="3" r:id="rId5"/>
@@ -17,13 +17,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">' План_факт_2013'!$A$2:$F$318</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Розподіл витрат'!$A$1:$G$19</definedName>
-    <definedName name="вс" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Розподіл витрат'!$A$1:$G$19</definedName>
+    <definedName name="вс" localSheetId="0">#REF!</definedName>
     <definedName name="вс">#REF!</definedName>
-    <definedName name="запрос2013" localSheetId="1">#REF!</definedName>
+    <definedName name="запрос2013" localSheetId="0">#REF!</definedName>
     <definedName name="запрос2013" localSheetId="4">#REF!</definedName>
     <definedName name="запрос2013">#REF!</definedName>
-    <definedName name="Копия_Запрос1" localSheetId="1">#REF!</definedName>
+    <definedName name="Копия_Запрос1" localSheetId="0">#REF!</definedName>
     <definedName name="Копия_Запрос1" localSheetId="4">#REF!</definedName>
     <definedName name="Копия_Запрос1">#REF!</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="684">
   <si>
     <t>Фінансові витрати для виконання зобов'язань  держави, органів місцевого самоврядування, фондів на виплати соц.допомоги, та надання інших послуг.</t>
   </si>
@@ -2075,6 +2075,21 @@
   </si>
   <si>
     <t>2015 рік</t>
+  </si>
+  <si>
+    <t>Надходження Фонду соціального страхування*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> у т.ч. Страхові внески страхувальників та застрахованих осіб**</t>
+  </si>
+  <si>
+    <t>*) значення за 2015,2016 рік розрахункові</t>
+  </si>
+  <si>
+    <t>**) значення за 2015,2016 рік розрахункові згідно з розподілу єдиного соціального внеску до фондів: у 2015р. Соцфонд на випадок безробіття складав 3,1997%, у 2016 - 7,1767%</t>
+  </si>
+  <si>
+    <t>у т.ч. Фонду соціального страхування</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2701,6 +2716,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2711,7 +2737,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3005,16 +3031,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3023,8 +3046,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
@@ -3059,120 +3199,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3189,6 +3215,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3215,17 +3247,24 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3248,6 +3287,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37124</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="12582525"/>
+          <a:ext cx="7809524" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3516,10 +3598,1224 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="17" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.42578125" customWidth="1"/>
+    <col min="9" max="10" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="G1" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21.8447</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25.551300000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>26.596599999999999</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
+        <v>21.8447</v>
+      </c>
+      <c r="J5" s="2">
+        <v>25.551300000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>26.596599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1988544000</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2385367000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2983882000</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1988544000</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2385367000</v>
+      </c>
+      <c r="K6" s="9">
+        <v>2983882000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9">
+        <f>SUM(C13:C23)+C8</f>
+        <v>992407534.2995441</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUM(D13:D23)+D8</f>
+        <v>1079783737.6833799</v>
+      </c>
+      <c r="E7" s="9">
+        <f>SUM(E13:E23)+E8</f>
+        <v>1331877832.1008899</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="9">
+        <f>I8+I18+I19+I23+I29+I32+I34+I38+I33</f>
+        <v>1283596082.5820739</v>
+      </c>
+      <c r="J7" s="9">
+        <f>J8+J18+J19+J23+J29+J32+J34+J38+J33</f>
+        <v>1506037150.4017887</v>
+      </c>
+      <c r="K7" s="9">
+        <f>K8+K18+K19+K23+K30+K32+K34+K38+K33</f>
+        <v>1893824038.4000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13">
+        <f>SUM(C9:C12)</f>
+        <v>295498705.665914</v>
+      </c>
+      <c r="D8" s="13">
+        <v>282133880.39999998</v>
+      </c>
+      <c r="E8" s="13">
+        <v>286921318.89999998</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="101">
+        <f>I10+I9+I17</f>
+        <v>582813235.9000001</v>
+      </c>
+      <c r="J8" s="101">
+        <f t="shared" ref="J8" si="0">J10+J9+J17</f>
+        <v>688206869.89999998</v>
+      </c>
+      <c r="K8" s="101">
+        <f>K10+K9+K17</f>
+        <v>843194855.10000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31.5">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15">
+        <v>9663617.2838400118</v>
+      </c>
+      <c r="D9" s="15">
+        <v>8150432.2478699954</v>
+      </c>
+      <c r="E9" s="15">
+        <v>10033588.88741</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="16">
+        <v>45167500</v>
+      </c>
+      <c r="J9" s="16">
+        <v>70262100</v>
+      </c>
+      <c r="K9" s="16">
+        <v>47882100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15">
+        <f>I23</f>
+        <v>264767813.59999999</v>
+      </c>
+      <c r="D10" s="15">
+        <f>J23</f>
+        <v>255801103</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" ref="E10" si="1">K23</f>
+        <v>292369838.39999998</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="101">
+        <v>534694812.19999999</v>
+      </c>
+      <c r="J10" s="101">
+        <v>616283219.60000002</v>
+      </c>
+      <c r="K10" s="101">
+        <v>793441850.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15">
+        <f>I29</f>
+        <v>5743000</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" ref="D11:E11" si="2">J29</f>
+        <v>8374803.2000000002</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>9912370.6999999993</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="16">
+        <v>409417539.19999999</v>
+      </c>
+      <c r="J11" s="16">
+        <v>503879432.80000001</v>
+      </c>
+      <c r="K11" s="16">
+        <v>627153686.20000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="C12" s="15">
+        <f>I34</f>
+        <v>15324274.782073952</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" ref="D12:E12" si="3">J34</f>
+        <v>16733134.60178864</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="3"/>
+        <v>16753084.4</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="16">
+        <v>120006485.40000001</v>
+      </c>
+      <c r="J12" s="16">
+        <v>103643682.40000001</v>
+      </c>
+      <c r="K12" s="16">
+        <v>128579090.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="13">
+        <f>I18</f>
+        <v>294460228</v>
+      </c>
+      <c r="D13" s="15">
+        <f>J18</f>
+        <v>366143119.5</v>
+      </c>
+      <c r="E13" s="15">
+        <f>K18</f>
+        <v>502098306.89999998</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="16">
+        <v>171402.9</v>
+      </c>
+      <c r="J13" s="16">
+        <v>191464</v>
+      </c>
+      <c r="K13" s="16">
+        <v>286899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="26.25">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="13">
+        <v>96369654.193750024</v>
+      </c>
+      <c r="D14" s="13">
+        <v>122111394.69769999</v>
+      </c>
+      <c r="E14" s="13">
+        <v>147753606.25195998</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="16">
+        <v>3144048.1</v>
+      </c>
+      <c r="J14" s="16">
+        <v>4171580.5</v>
+      </c>
+      <c r="K14" s="16">
+        <v>5967702.7999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="26.25">
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="13">
+        <v>32832724.656319998</v>
+      </c>
+      <c r="D15" s="13">
+        <v>21407188.850669999</v>
+      </c>
+      <c r="E15" s="13">
+        <v>35170328.144850001</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1800319.7</v>
+      </c>
+      <c r="J15" s="16">
+        <v>4109357.8</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1607365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="13">
+        <v>80945853.062359989</v>
+      </c>
+      <c r="D16" s="13">
+        <v>79634967.757339984</v>
+      </c>
+      <c r="E16" s="13">
+        <v>93779849.32870999</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="16">
+        <v>155017</v>
+      </c>
+      <c r="J16" s="16">
+        <v>287702.09999999998</v>
+      </c>
+      <c r="K16" s="16">
+        <v>29847107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
+      <c r="A17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="13">
+        <v>84505352.121130005</v>
+      </c>
+      <c r="D17" s="13">
+        <v>95794185.601339996</v>
+      </c>
+      <c r="E17" s="13">
+        <v>110456101.10225999</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="16">
+        <v>2950923.7</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1661550.3</v>
+      </c>
+      <c r="K17" s="16">
+        <v>1870904.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="13">
+        <v>7260586.5795700001</v>
+      </c>
+      <c r="D18" s="13">
+        <v>7384852.9231900005</v>
+      </c>
+      <c r="E18" s="13">
+        <v>15221033.124159999</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="16">
+        <v>294460228</v>
+      </c>
+      <c r="J18" s="16">
+        <v>366143119.5</v>
+      </c>
+      <c r="K18" s="16">
+        <v>502098306.89999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
+      <c r="A19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="13">
+        <v>22432760.112849999</v>
+      </c>
+      <c r="D19" s="13">
+        <v>19841473.35861</v>
+      </c>
+      <c r="E19" s="13">
+        <v>28856743.413180001</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="16">
+        <v>120480230.3</v>
+      </c>
+      <c r="J19" s="16">
+        <v>170747845.80000001</v>
+      </c>
+      <c r="K19" s="16">
+        <v>229495360.40000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="13">
+        <v>6297372.5389499972</v>
+      </c>
+      <c r="D20" s="13">
+        <v>11468040.566610001</v>
+      </c>
+      <c r="E20" s="13">
+        <v>13067891.10615004</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="16">
+        <f>3144048.1*(-1)</f>
+        <v>-3144048.1</v>
+      </c>
+      <c r="J20" s="16">
+        <f>4171580.5*(-1)</f>
+        <v>-4171580.5</v>
+      </c>
+      <c r="K20" s="16">
+        <f>5967702.8*(-1)</f>
+        <v>-5967702.7999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="13">
+        <v>11826896.330670001</v>
+      </c>
+      <c r="D21" s="13">
+        <v>14079737.952500001</v>
+      </c>
+      <c r="E21" s="13">
+        <v>19301234.522229999</v>
+      </c>
+      <c r="F21">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="16">
+        <v>7276877.9000000004</v>
+      </c>
+      <c r="J21" s="16">
+        <v>6836579.9000000004</v>
+      </c>
+      <c r="K21" s="16">
+        <v>21998513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
+      <c r="A22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="13">
+        <v>57317158.814449996</v>
+      </c>
+      <c r="D22" s="13">
+        <v>57017048.83953999</v>
+      </c>
+      <c r="E22" s="13">
+        <v>74793026.607269987</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="16">
+        <v>166703119.80000001</v>
+      </c>
+      <c r="J22" s="16">
+        <v>188558693.69999999</v>
+      </c>
+      <c r="K22" s="16">
+        <v>250604433.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="13">
+        <v>2660242.22358</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2767847.235880001</v>
+      </c>
+      <c r="E23" s="13">
+        <v>4458392.7001200011</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="16">
+        <v>264767813.59999999</v>
+      </c>
+      <c r="J23" s="16">
+        <v>255801103</v>
+      </c>
+      <c r="K23" s="16">
+        <v>292369838.39999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="16">
+        <v>169873912.90000001</v>
+      </c>
+      <c r="J24" s="16">
+        <v>111706564.7</v>
+      </c>
+      <c r="K24" s="16">
+        <v>158910141.90000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="26.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="16">
+        <v>63052284.5</v>
+      </c>
+      <c r="J25" s="16">
+        <v>142586226.59999999</v>
+      </c>
+      <c r="K25" s="16">
+        <v>133458626.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="26.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="16">
+        <v>31759267</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="26.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="188"/>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="16">
+        <v>75050.7</v>
+      </c>
+      <c r="J27" s="16">
+        <v>1506693</v>
+      </c>
+      <c r="K27" s="16">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="26.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="16">
+        <v>7298.5</v>
+      </c>
+      <c r="J28" s="16">
+        <v>1618.5</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1050.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="31.5" outlineLevel="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29">
+        <v>24</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29" s="16">
+        <v>5743000</v>
+      </c>
+      <c r="J29" s="16">
+        <v>8374803.2000000002</v>
+      </c>
+      <c r="K29" s="16">
+        <v>9912370.6999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" outlineLevel="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" s="16">
+        <v>5704000</v>
+      </c>
+      <c r="J30" s="16">
+        <v>8333821.7000000002</v>
+      </c>
+      <c r="K30" s="16">
+        <v>9849575.9000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" outlineLevel="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="16">
+        <v>10</v>
+      </c>
+      <c r="J31" s="16">
+        <v>258.5</v>
+      </c>
+      <c r="K31" s="16">
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" outlineLevel="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="188"/>
+      <c r="E32" s="188"/>
+      <c r="F32">
+        <v>27</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="16">
+        <v>62700</v>
+      </c>
+      <c r="J32" s="16">
+        <v>40723</v>
+      </c>
+      <c r="K32" s="16">
+        <v>62612.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="26.25" outlineLevel="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33">
+        <v>28</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="16">
+        <v>-55400</v>
+      </c>
+      <c r="J33" s="16">
+        <v>-10448.6</v>
+      </c>
+      <c r="K33" s="16">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="15.75">
+      <c r="B34" s="3"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34">
+        <v>29</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="I34" s="16">
+        <f>I35/0.99</f>
+        <v>15324274.782073952</v>
+      </c>
+      <c r="J34" s="16">
+        <f>J35/0.99</f>
+        <v>16733134.60178864</v>
+      </c>
+      <c r="K34" s="16">
+        <v>16753084.4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="27" customHeight="1" outlineLevel="1">
+      <c r="B35" s="3"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="I35" s="186">
+        <f>((I30*100)/3.1997)*(0.046243+0.03886)</f>
+        <v>15171032.034253212</v>
+      </c>
+      <c r="J35" s="186">
+        <f>((J30*100)/7.1767)*(0.07726+0.065397)</f>
+        <v>16565803.255770754</v>
+      </c>
+      <c r="K35" s="16">
+        <v>16658933.800000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="18.75" customHeight="1" outlineLevel="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36">
+        <v>31</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16">
+        <v>11135.7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37">
+        <v>32</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16">
+        <v>26362.799999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="28.5" customHeight="1" outlineLevel="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38">
+        <v>33</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16">
+        <v>424.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="27" customHeight="1" outlineLevel="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39">
+        <v>34</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16">
+        <v>14989.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="18" customHeight="1" outlineLevel="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40">
+        <v>35</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="2:11" ht="21.75" customHeight="1" outlineLevel="1">
+      <c r="F41">
+        <v>36</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16">
+        <v>41238.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="33.75" customHeight="1" outlineLevel="1">
+      <c r="F42">
+        <v>37</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16">
+        <v>32776</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="F43">
+        <v>38</v>
+      </c>
+      <c r="H43" s="185" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="39">
+      <c r="H44" s="185" t="s">
+        <v>682</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G1:K2"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3989,1117 +5285,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.42578125" customWidth="1"/>
-    <col min="9" max="10" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="G1" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-    </row>
-    <row r="4" spans="1:11" ht="25.5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>21.8447</v>
-      </c>
-      <c r="D5" s="2">
-        <v>25.551300000000001</v>
-      </c>
-      <c r="E5" s="2">
-        <v>26.596599999999999</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2">
-        <v>21.8447</v>
-      </c>
-      <c r="J5" s="2">
-        <v>25.551300000000001</v>
-      </c>
-      <c r="K5" s="2">
-        <v>26.596599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1988544000</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2385367000</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2983882000</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1988544000</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2385367000</v>
-      </c>
-      <c r="K6" s="9">
-        <v>2983882000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9">
-        <f>SUM(C14:C24)+C8</f>
-        <v>578151550.79999995</v>
-      </c>
-      <c r="D7" s="9">
-        <f>SUM(D14:D24)+D8</f>
-        <v>648276999.89999998</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" ref="E7" si="0">SUM(E14:E24)+E8</f>
-        <v>789019625.79999995</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="9">
-        <f>I8+I19+I20+I25+I31+I33+I35+I39+I34</f>
-        <v>827999879.0999999</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" ref="J7:K7" si="1">J8+J19+J20+J25+J31+J33+J35+J39+J34</f>
-        <v>282454410.5</v>
-      </c>
-      <c r="K7" s="9">
-        <f t="shared" si="1"/>
-        <v>388405502.30000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13">
-        <f>SUM(C9:C13)</f>
-        <v>283691322.80000001</v>
-      </c>
-      <c r="D8" s="13">
-        <v>282133880.39999998</v>
-      </c>
-      <c r="E8" s="13">
-        <v>286921318.89999998</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="101">
-        <f>I10+I9+I17</f>
-        <v>537645735.89999998</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:11" ht="31.5">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="40">
-        <v>0</v>
-      </c>
-      <c r="D9" s="40">
-        <v>0</v>
-      </c>
-      <c r="E9" s="40">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="15">
-        <f>I24</f>
-        <v>264767813.59999999</v>
-      </c>
-      <c r="D10" s="15">
-        <f>J24</f>
-        <v>255801103</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" ref="E10" si="2">K24</f>
-        <v>292369838.39999998</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="101">
-        <v>534694812.19999999</v>
-      </c>
-      <c r="J10" s="101">
-        <v>616283219.60000002</v>
-      </c>
-      <c r="K10" s="101">
-        <v>793441850.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="15">
-        <v>8899821.1999999993</v>
-      </c>
-      <c r="D11" s="15">
-        <f>J31+J33</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <f>K31+K33</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="16">
-        <v>409417539.19999999</v>
-      </c>
-      <c r="J11" s="16">
-        <v>503879432.80000001</v>
-      </c>
-      <c r="K11" s="16">
-        <v>627153686.20000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="26.25">
-      <c r="A12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15">
-        <v>10023688</v>
-      </c>
-      <c r="D12" s="15">
-        <f>J35</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <f>K35</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="16">
-        <v>120006485.40000001</v>
-      </c>
-      <c r="J12" s="16">
-        <v>103643682.40000001</v>
-      </c>
-      <c r="K12" s="16">
-        <v>128579090.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="26.25">
-      <c r="A13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="15">
-        <f>I39-I44</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <f t="shared" ref="D13:E13" si="3">J39-J44</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="16">
-        <v>171402.9</v>
-      </c>
-      <c r="J13" s="16">
-        <v>191464</v>
-      </c>
-      <c r="K13" s="16">
-        <v>286899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="26.25">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="13">
-        <f>I18</f>
-        <v>294460228</v>
-      </c>
-      <c r="D14" s="15">
-        <f>J18</f>
-        <v>366143119.5</v>
-      </c>
-      <c r="E14" s="15">
-        <f>K18</f>
-        <v>502098306.89999998</v>
-      </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="16">
-        <v>3144048.1</v>
-      </c>
-      <c r="J14" s="16">
-        <v>4171580.5</v>
-      </c>
-      <c r="K14" s="16">
-        <v>5967702.7999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="26.25">
-      <c r="A15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="37">
-        <v>0</v>
-      </c>
-      <c r="D15" s="37">
-        <v>0</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="16">
-        <v>1800319.7</v>
-      </c>
-      <c r="J15" s="16">
-        <v>4109357.8</v>
-      </c>
-      <c r="K15" s="16">
-        <v>1607365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="37">
-        <v>0</v>
-      </c>
-      <c r="D16" s="37">
-        <v>0</v>
-      </c>
-      <c r="E16" s="37">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" s="16">
-        <v>155017</v>
-      </c>
-      <c r="J16" s="16">
-        <v>287702.09999999998</v>
-      </c>
-      <c r="K16" s="16">
-        <v>29847107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="37">
-        <v>0</v>
-      </c>
-      <c r="D17" s="37">
-        <v>0</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="16">
-        <v>2950923.7</v>
-      </c>
-      <c r="J17" s="16">
-        <v>1661550.3</v>
-      </c>
-      <c r="K17" s="16">
-        <v>1870904.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="37">
-        <v>0</v>
-      </c>
-      <c r="D18" s="37">
-        <v>0</v>
-      </c>
-      <c r="E18" s="37">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="16">
-        <v>294460228</v>
-      </c>
-      <c r="J18" s="16">
-        <v>366143119.5</v>
-      </c>
-      <c r="K18" s="16">
-        <v>502098306.89999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="37">
-        <v>0</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0</v>
-      </c>
-      <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>14</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="16">
-        <v>120480230.3</v>
-      </c>
-      <c r="J19" s="16">
-        <v>170747845.80000001</v>
-      </c>
-      <c r="K19" s="16">
-        <v>229495360.40000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="37">
-        <v>0</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0</v>
-      </c>
-      <c r="E20" s="37">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="37">
-        <v>0</v>
-      </c>
-      <c r="D21" s="37">
-        <v>0</v>
-      </c>
-      <c r="E21" s="37">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>16</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="37">
-        <v>0</v>
-      </c>
-      <c r="D22" s="37">
-        <v>0</v>
-      </c>
-      <c r="E22" s="37">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="16">
-        <v>7276877.9000000004</v>
-      </c>
-      <c r="J22" s="16">
-        <v>6836579.9000000004</v>
-      </c>
-      <c r="K22" s="16">
-        <v>21998513</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="37">
-        <v>0</v>
-      </c>
-      <c r="D23" s="37">
-        <v>0</v>
-      </c>
-      <c r="E23" s="37">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>18</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="16">
-        <v>166703119.80000001</v>
-      </c>
-      <c r="J23" s="16">
-        <v>188558693.69999999</v>
-      </c>
-      <c r="K23" s="16">
-        <v>250604433.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="37">
-        <v>0</v>
-      </c>
-      <c r="D24" s="37">
-        <v>0</v>
-      </c>
-      <c r="E24" s="37">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>19</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="16">
-        <v>264767813.59999999</v>
-      </c>
-      <c r="J24" s="16">
-        <v>255801103</v>
-      </c>
-      <c r="K24" s="16">
-        <v>292369838.39999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="F25">
-        <v>20</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="16">
-        <v>169873912.90000001</v>
-      </c>
-      <c r="J25" s="16">
-        <v>111706564.7</v>
-      </c>
-      <c r="K25" s="16">
-        <v>158910141.90000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="26.25">
-      <c r="C26"/>
-      <c r="F26">
-        <v>21</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="16">
-        <v>63052284.5</v>
-      </c>
-      <c r="J26" s="16">
-        <v>142586226.59999999</v>
-      </c>
-      <c r="K26" s="16">
-        <v>133458626.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="26.25">
-      <c r="F27">
-        <v>22</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I27" s="16">
-        <v>31759267</v>
-      </c>
-      <c r="J27" s="16">
-        <v>0</v>
-      </c>
-      <c r="K27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="26.25">
-      <c r="F28">
-        <v>23</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="16">
-        <v>75050.7</v>
-      </c>
-      <c r="J28" s="16">
-        <v>1506693</v>
-      </c>
-      <c r="K28" s="16">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="26.25" outlineLevel="1">
-      <c r="F29">
-        <v>24</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="16">
-        <v>7298.5</v>
-      </c>
-      <c r="J29" s="16">
-        <v>1618.5</v>
-      </c>
-      <c r="K29" s="16">
-        <v>1050.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="31.5" outlineLevel="1">
-      <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" outlineLevel="1">
-      <c r="F31">
-        <v>26</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-    </row>
-    <row r="32" spans="1:11" outlineLevel="1">
-      <c r="F32">
-        <v>27</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-    </row>
-    <row r="33" spans="6:11" outlineLevel="1">
-      <c r="F33">
-        <v>28</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-    </row>
-    <row r="34" spans="6:11" ht="26.25">
-      <c r="F34">
-        <v>29</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-    </row>
-    <row r="35" spans="6:11" ht="31.5" outlineLevel="1">
-      <c r="F35">
-        <v>30</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-    </row>
-    <row r="36" spans="6:11" ht="26.25" outlineLevel="1">
-      <c r="F36">
-        <v>31</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-    </row>
-    <row r="37" spans="6:11">
-      <c r="F37">
-        <v>32</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-    </row>
-    <row r="38" spans="6:11" outlineLevel="1">
-      <c r="F38">
-        <v>33</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-    </row>
-    <row r="39" spans="6:11" ht="31.5" outlineLevel="1">
-      <c r="F39">
-        <v>34</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-    </row>
-    <row r="40" spans="6:11" outlineLevel="1">
-      <c r="F40">
-        <v>35</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-    </row>
-    <row r="41" spans="6:11" ht="26.25" outlineLevel="1">
-      <c r="F41">
-        <v>36</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-    </row>
-    <row r="42" spans="6:11" ht="26.25" outlineLevel="1">
-      <c r="F42">
-        <v>37</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-    </row>
-    <row r="43" spans="6:11" ht="26.25">
-      <c r="F43">
-        <v>38</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-    </row>
-    <row r="44" spans="6:11" ht="26.25">
-      <c r="F44">
-        <v>39</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G1:K2"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -5107,8 +5292,8 @@
   </sheetPr>
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
@@ -6291,14 +6476,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="117" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
     </row>
     <row r="2" spans="1:6" s="21" customFormat="1" ht="132.75" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -6797,7 +6982,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" outlineLevel="1">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="116" t="s">
         <v>141</v>
       </c>
       <c r="B33" s="113" t="s">
@@ -6817,7 +7002,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A34" s="114"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="113" t="s">
         <v>142</v>
       </c>
@@ -10803,11 +10988,11 @@
       </c>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A279" s="115" t="s">
+      <c r="A279" s="114" t="s">
         <v>367</v>
       </c>
-      <c r="B279" s="115"/>
-      <c r="C279" s="115" t="s">
+      <c r="B279" s="114"/>
+      <c r="C279" s="114" t="s">
         <v>368</v>
       </c>
       <c r="D279" s="26" t="s">
@@ -10821,9 +11006,9 @@
       </c>
     </row>
     <row r="280" spans="1:6" outlineLevel="1">
-      <c r="A280" s="116"/>
-      <c r="B280" s="116"/>
-      <c r="C280" s="116"/>
+      <c r="A280" s="115"/>
+      <c r="B280" s="115"/>
+      <c r="C280" s="115"/>
       <c r="D280" s="28" t="s">
         <v>384</v>
       </c>
@@ -11457,11 +11642,11 @@
       </c>
     </row>
     <row r="317" spans="1:6">
-      <c r="A317" s="117" t="s">
+      <c r="A317" s="111" t="s">
         <v>385</v>
       </c>
-      <c r="B317" s="117"/>
-      <c r="C317" s="117"/>
+      <c r="B317" s="111"/>
+      <c r="C317" s="111"/>
       <c r="D317" s="30" t="s">
         <v>383</v>
       </c>
@@ -11473,9 +11658,9 @@
       </c>
     </row>
     <row r="318" spans="1:6">
-      <c r="A318" s="117"/>
-      <c r="B318" s="117"/>
-      <c r="C318" s="117"/>
+      <c r="A318" s="111"/>
+      <c r="B318" s="111"/>
+      <c r="C318" s="111"/>
       <c r="D318" s="32" t="s">
         <v>384</v>
       </c>
@@ -11490,6 +11675,433 @@
   <autoFilter ref="A2:F318"/>
   <dataConsolidate/>
   <mergeCells count="441">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="A147:C148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="A173:C174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="A167:C168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="A185:A186"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="A191:A192"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="A189:A190"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="A195:C196"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="A211:C212"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="A205:C206"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="A223:A224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="A217:A218"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="A229:C230"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="A225:A226"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="A235:A236"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="A237:A238"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="A257:A258"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="A263:A264"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="A265:C266"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="A269:A270"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="A271:C272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="A285:C286"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="A289:C290"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="A293:A294"/>
+    <mergeCell ref="B293:B294"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="A305:A306"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="C301:C302"/>
     <mergeCell ref="A317:C318"/>
     <mergeCell ref="A311:C312"/>
     <mergeCell ref="A313:A314"/>
@@ -11504,433 +12116,6 @@
     <mergeCell ref="A309:A310"/>
     <mergeCell ref="B309:B310"/>
     <mergeCell ref="C309:C310"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="A305:A306"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="A295:A296"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="A297:A298"/>
-    <mergeCell ref="B297:B298"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="A289:C290"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="A293:A294"/>
-    <mergeCell ref="B293:B294"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="A285:C286"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="A269:A270"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="A271:C272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="A263:A264"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="A265:C266"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="A259:A260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="A261:A262"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="A257:A258"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="A247:A248"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="A249:A250"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="A235:A236"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="A237:A238"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="A229:C230"/>
-    <mergeCell ref="A231:A232"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="A225:A226"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="A223:A224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="A217:A218"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="A211:C212"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="A205:C206"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="A195:C196"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="A189:A190"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A185:A186"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="A173:C174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="A167:C168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="A147:C148"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12321,7 +12506,7 @@
       <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="114" t="s">
+      <c r="A32" s="116" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="113" t="s">
@@ -12339,7 +12524,7 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="114"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="113" t="s">
         <v>142</v>
       </c>
@@ -16056,48 +16241,679 @@
     </row>
   </sheetData>
   <mergeCells count="737">
-    <mergeCell ref="E310:G311"/>
-    <mergeCell ref="A312:A313"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="C312:C313"/>
-    <mergeCell ref="E312:G313"/>
-    <mergeCell ref="A314:A315"/>
-    <mergeCell ref="B314:B315"/>
-    <mergeCell ref="C314:C315"/>
-    <mergeCell ref="E314:G315"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="D312:D313"/>
-    <mergeCell ref="D314:D315"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="B306:B307"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="E306:G307"/>
-    <mergeCell ref="A308:A309"/>
-    <mergeCell ref="B308:B309"/>
-    <mergeCell ref="C308:C309"/>
-    <mergeCell ref="E308:G309"/>
-    <mergeCell ref="D306:D307"/>
-    <mergeCell ref="D308:D309"/>
-    <mergeCell ref="A302:A303"/>
-    <mergeCell ref="B302:B303"/>
-    <mergeCell ref="C302:C303"/>
-    <mergeCell ref="E302:G303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="E304:G305"/>
-    <mergeCell ref="D302:D303"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="E298:G299"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="E300:G301"/>
-    <mergeCell ref="D298:D299"/>
-    <mergeCell ref="D300:D301"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:G11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:G15"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:G17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E20:G21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="E40:G41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="E42:G43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E44:G45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:G49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="E50:G51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:G53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E54:G55"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:G57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E58:G59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:G61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:G63"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:G65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:G67"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="E68:G69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:G71"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="E72:G73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E74:G75"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="E76:G77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E78:G79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="E80:G81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="E82:G83"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="E84:G85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="E86:G87"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:G89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="E90:G91"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E92:G93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="E94:G95"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="E96:G97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="E98:G99"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="E100:G101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="E102:G103"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="E104:G105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="E106:G107"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="E108:G109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="E110:G111"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="E112:G113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E114:G115"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E116:G117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="E118:G119"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="E120:G121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="E122:G123"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="E124:G125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="E126:G127"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="E128:G129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="E130:G131"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E132:G133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="E134:G135"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="E136:G137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="E138:G139"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="E140:G141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="E142:G143"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="E144:G145"/>
+    <mergeCell ref="E146:G147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="E148:G149"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="E154:G155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="E156:G157"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="E150:G151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="E152:G153"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="E158:G159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="E160:G161"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="E162:G163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="E164:G165"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E166:G167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="E168:G169"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="E170:G171"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E172:G173"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="E174:G175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="E176:G177"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="E178:G179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="E180:G181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="D178:D179"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="E182:G183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="E184:G185"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="E186:G187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="E188:G189"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="E190:G191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="C192:C193"/>
+    <mergeCell ref="E192:G193"/>
+    <mergeCell ref="D190:D191"/>
+    <mergeCell ref="D192:D193"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="E200:G201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="E202:G203"/>
+    <mergeCell ref="E194:G195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="E196:G197"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="E198:G199"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="D196:D197"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="D202:D203"/>
+    <mergeCell ref="E204:G205"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="E206:G207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="E208:G209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="E210:G211"/>
+    <mergeCell ref="A212:A213"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="E212:G213"/>
+    <mergeCell ref="A214:A215"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="E214:G215"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="E220:G221"/>
+    <mergeCell ref="A222:A223"/>
+    <mergeCell ref="B222:B223"/>
+    <mergeCell ref="C222:C223"/>
+    <mergeCell ref="E222:G223"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="E216:G217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="E218:G219"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="D222:D223"/>
+    <mergeCell ref="A224:A225"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="E224:G225"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="E226:G227"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="E228:G229"/>
+    <mergeCell ref="A230:A231"/>
+    <mergeCell ref="B230:B231"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="E230:G231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="E232:G233"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="D230:D231"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="E238:G239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="E240:G241"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="E234:G235"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="E236:G237"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="E242:G243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="E244:G245"/>
+    <mergeCell ref="D242:D243"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="B246:B247"/>
+    <mergeCell ref="C246:C247"/>
+    <mergeCell ref="E246:G247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B248:B249"/>
+    <mergeCell ref="C248:C249"/>
+    <mergeCell ref="E248:G249"/>
+    <mergeCell ref="D246:D247"/>
+    <mergeCell ref="D248:D249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="B250:B251"/>
+    <mergeCell ref="C250:C251"/>
+    <mergeCell ref="E250:G251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="B252:B253"/>
+    <mergeCell ref="C252:C253"/>
+    <mergeCell ref="E252:G253"/>
+    <mergeCell ref="D250:D251"/>
+    <mergeCell ref="D252:D253"/>
+    <mergeCell ref="A254:A255"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="E254:G255"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="E256:G257"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="A258:A259"/>
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="E258:G259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="E260:G261"/>
+    <mergeCell ref="D258:D259"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="E262:G263"/>
+    <mergeCell ref="E264:G265"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="E266:G267"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="B268:B269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="E268:G269"/>
+    <mergeCell ref="E270:G271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="E272:G273"/>
+    <mergeCell ref="D268:D269"/>
+    <mergeCell ref="D270:D271"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="E274:G275"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="E276:G277"/>
+    <mergeCell ref="D276:D277"/>
+    <mergeCell ref="D274:D275"/>
+    <mergeCell ref="A278:A279"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="E278:G279"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="E280:G281"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="E282:G283"/>
+    <mergeCell ref="A284:A285"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="C284:C287"/>
+    <mergeCell ref="E284:G285"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="E286:G287"/>
+    <mergeCell ref="D282:D283"/>
+    <mergeCell ref="D284:D285"/>
+    <mergeCell ref="D286:D287"/>
     <mergeCell ref="A294:A295"/>
     <mergeCell ref="B294:B295"/>
     <mergeCell ref="C294:C295"/>
@@ -16120,679 +16936,48 @@
     <mergeCell ref="D292:D293"/>
     <mergeCell ref="D294:D295"/>
     <mergeCell ref="D296:D297"/>
-    <mergeCell ref="E282:G283"/>
-    <mergeCell ref="A284:A285"/>
-    <mergeCell ref="B284:B285"/>
-    <mergeCell ref="C284:C287"/>
-    <mergeCell ref="E284:G285"/>
-    <mergeCell ref="A286:A287"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="E286:G287"/>
-    <mergeCell ref="D282:D283"/>
-    <mergeCell ref="D284:D285"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="A278:A279"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="E278:G279"/>
-    <mergeCell ref="A280:A281"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="E280:G281"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="E274:G275"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="C276:C277"/>
-    <mergeCell ref="E276:G277"/>
-    <mergeCell ref="D276:D277"/>
-    <mergeCell ref="D274:D275"/>
-    <mergeCell ref="A268:A269"/>
-    <mergeCell ref="B268:B269"/>
-    <mergeCell ref="C268:C269"/>
-    <mergeCell ref="E268:G269"/>
-    <mergeCell ref="E270:G271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="E272:G273"/>
-    <mergeCell ref="D268:D269"/>
-    <mergeCell ref="D270:D271"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="E262:G263"/>
-    <mergeCell ref="E264:G265"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="E266:G267"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="A258:A259"/>
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="E258:G259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="E260:G261"/>
-    <mergeCell ref="D258:D259"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="A254:A255"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="E254:G255"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="E256:G257"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="A250:A251"/>
-    <mergeCell ref="B250:B251"/>
-    <mergeCell ref="C250:C251"/>
-    <mergeCell ref="E250:G251"/>
-    <mergeCell ref="A252:A253"/>
-    <mergeCell ref="B252:B253"/>
-    <mergeCell ref="C252:C253"/>
-    <mergeCell ref="E252:G253"/>
-    <mergeCell ref="D250:D251"/>
-    <mergeCell ref="D252:D253"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="B246:B247"/>
-    <mergeCell ref="C246:C247"/>
-    <mergeCell ref="E246:G247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B248:B249"/>
-    <mergeCell ref="C248:C249"/>
-    <mergeCell ref="E248:G249"/>
-    <mergeCell ref="D246:D247"/>
-    <mergeCell ref="D248:D249"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="E242:G243"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="E244:G245"/>
-    <mergeCell ref="D242:D243"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="E238:G239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="E240:G241"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="E234:G235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="E236:G237"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E228:G229"/>
-    <mergeCell ref="A230:A231"/>
-    <mergeCell ref="B230:B231"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="E230:G231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="E232:G233"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="D230:D231"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="A224:A225"/>
-    <mergeCell ref="B224:B225"/>
-    <mergeCell ref="C224:C225"/>
-    <mergeCell ref="E224:G225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="E226:G227"/>
-    <mergeCell ref="D224:D225"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="A220:A221"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="E220:G221"/>
-    <mergeCell ref="A222:A223"/>
-    <mergeCell ref="B222:B223"/>
-    <mergeCell ref="C222:C223"/>
-    <mergeCell ref="E222:G223"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="E216:G217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="E218:G219"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="D222:D223"/>
-    <mergeCell ref="E210:G211"/>
-    <mergeCell ref="A212:A213"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="E212:G213"/>
-    <mergeCell ref="A214:A215"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="E214:G215"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E204:G205"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="E206:G207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="E208:G209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="E200:G201"/>
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="C202:C203"/>
-    <mergeCell ref="E202:G203"/>
-    <mergeCell ref="E194:G195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="E196:G197"/>
-    <mergeCell ref="A198:A199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="E198:G199"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="D196:D197"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="D202:D203"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="E190:G191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="C192:C193"/>
-    <mergeCell ref="E192:G193"/>
-    <mergeCell ref="D190:D191"/>
-    <mergeCell ref="D192:D193"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="E186:G187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="E188:G189"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="E182:G183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="E184:G185"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="E178:G179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="E180:G181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="D178:D179"/>
-    <mergeCell ref="E172:G173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="E174:G175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="E176:G177"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E166:G167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="E168:G169"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="E170:G171"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="E162:G163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="E164:G165"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="E158:G159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="E160:G161"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="E154:G155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="E156:G157"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="E150:G151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="E152:G153"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="E144:G145"/>
-    <mergeCell ref="E146:G147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="E148:G149"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="E140:G141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="E142:G143"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="E136:G137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="E138:G139"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E132:G133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="E134:G135"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="E128:G129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="E130:G131"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="E124:G125"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="E126:G127"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="E120:G121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="E122:G123"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E116:G117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="E118:G119"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="E112:G113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E114:G115"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="E108:G109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="E110:G111"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="E104:G105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="E106:G107"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="E100:G101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="E102:G103"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="E96:G97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="E98:G99"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="E92:G93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="E94:G95"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:G89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="E90:G91"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="E84:G85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="E86:G87"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="E80:G81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="E82:G83"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="E76:G77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E78:G79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="E72:G73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="E74:G75"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="E68:G69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:G71"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:G65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:G67"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:G61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:G63"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:G57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="E58:G59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:G53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E54:G55"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:G49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="E50:G51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E44:G45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="E46:G47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="E40:G41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="E42:G43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E14:G15"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:G11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:G7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="E298:G299"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="E300:G301"/>
+    <mergeCell ref="D298:D299"/>
+    <mergeCell ref="D300:D301"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="B302:B303"/>
+    <mergeCell ref="C302:C303"/>
+    <mergeCell ref="E302:G303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="E304:G305"/>
+    <mergeCell ref="D302:D303"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="B306:B307"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="E306:G307"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="B308:B309"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="E308:G309"/>
+    <mergeCell ref="D306:D307"/>
+    <mergeCell ref="D308:D309"/>
+    <mergeCell ref="E310:G311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="E312:G313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="E314:G315"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="D312:D313"/>
+    <mergeCell ref="D314:D315"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -16822,34 +17007,34 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="156" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" ht="45" customHeight="1">
-      <c r="A3" s="121"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="125" t="s">
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="163" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="163" t="s">
         <v>404</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="165" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="128"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="123"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="49" t="s">
         <v>405</v>
       </c>
@@ -16858,10 +17043,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="138" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="130"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="50">
         <v>2199700</v>
       </c>
@@ -16876,10 +17061,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="134" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="132"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="53"/>
       <c r="D6" s="54">
         <v>241871708</v>
@@ -16888,10 +17073,10 @@
       <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="134" t="s">
         <v>408</v>
       </c>
-      <c r="B7" s="132"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="54">
         <v>166928012</v>
       </c>
@@ -16906,10 +17091,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="138" t="s">
         <v>409</v>
       </c>
-      <c r="B8" s="130"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -17060,10 +17245,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="B17" s="132"/>
+      <c r="B17" s="135"/>
       <c r="C17" s="54">
         <v>169127712</v>
       </c>
@@ -17078,10 +17263,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="134" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="132"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="54">
         <v>81729669.5</v>
       </c>
@@ -17096,10 +17281,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="138" t="s">
         <v>409</v>
       </c>
-      <c r="B19" s="130"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
@@ -17146,10 +17331,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="134" t="s">
         <v>423</v>
       </c>
-      <c r="B22" s="132"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="54">
         <v>105870.9</v>
       </c>
@@ -17164,10 +17349,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="134" t="s">
         <v>424</v>
       </c>
-      <c r="B23" s="132"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="54">
         <v>79978.7</v>
       </c>
@@ -17182,10 +17367,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A24" s="131" t="s">
+      <c r="A24" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="B24" s="132"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="54">
         <v>251043231.09999999</v>
       </c>
@@ -17216,10 +17401,10 @@
       <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="134" t="s">
         <v>427</v>
       </c>
-      <c r="B26" s="132"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="54">
         <v>251043231.09999999</v>
       </c>
@@ -17234,20 +17419,20 @@
       </c>
     </row>
     <row r="27" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="134" t="s">
         <v>428</v>
       </c>
-      <c r="B27" s="132"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="134" t="s">
         <v>429</v>
       </c>
-      <c r="B28" s="132"/>
+      <c r="B28" s="135"/>
       <c r="C28" s="54">
         <v>191526185.40000001</v>
       </c>
@@ -17262,10 +17447,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="138" t="s">
         <v>430</v>
       </c>
-      <c r="B29" s="130"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
@@ -17492,10 +17677,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="134" t="s">
         <v>442</v>
       </c>
-      <c r="B41" s="132"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="54">
         <v>57233100.399999999</v>
       </c>
@@ -17510,10 +17695,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="129" t="s">
+      <c r="A42" s="138" t="s">
         <v>443</v>
       </c>
-      <c r="B42" s="130"/>
+      <c r="B42" s="139"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
       <c r="E42" s="53"/>
@@ -17540,10 +17725,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="134" t="s">
         <v>445</v>
       </c>
-      <c r="B44" s="132"/>
+      <c r="B44" s="135"/>
       <c r="C44" s="54">
         <v>105870.9</v>
       </c>
@@ -17558,10 +17743,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="134" t="s">
         <v>446</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="135"/>
       <c r="C45" s="54">
         <v>79978.7</v>
       </c>
@@ -17576,10 +17761,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A46" s="131" t="s">
+      <c r="A46" s="134" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="132"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="54">
         <v>248945135.40000001</v>
       </c>
@@ -17594,10 +17779,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" s="52" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A47" s="131" t="s">
+      <c r="A47" s="134" t="s">
         <v>448</v>
       </c>
-      <c r="B47" s="132"/>
+      <c r="B47" s="135"/>
       <c r="C47" s="54">
         <v>2098095.7000000002</v>
       </c>
@@ -17673,22 +17858,22 @@
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
-      <c r="A56" s="133"/>
-      <c r="B56" s="134"/>
+      <c r="A56" s="145"/>
+      <c r="B56" s="146"/>
       <c r="C56" s="61" t="s">
         <v>456</v>
       </c>
       <c r="D56" s="61" t="s">
         <v>458</v>
       </c>
-      <c r="E56" s="137" t="s">
+      <c r="E56" s="154" t="s">
         <v>399</v>
       </c>
-      <c r="F56" s="138"/>
+      <c r="F56" s="155"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="135"/>
-      <c r="B57" s="136"/>
+      <c r="A57" s="147"/>
+      <c r="B57" s="148"/>
       <c r="C57" s="62" t="s">
         <v>457</v>
       </c>
@@ -17703,10 +17888,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" customHeight="1">
-      <c r="A58" s="139" t="s">
+      <c r="A58" s="149" t="s">
         <v>406</v>
       </c>
-      <c r="B58" s="140"/>
+      <c r="B58" s="150"/>
       <c r="C58" s="64">
         <v>1720700</v>
       </c>
@@ -17721,10 +17906,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="141" t="s">
+      <c r="A59" s="143" t="s">
         <v>407</v>
       </c>
-      <c r="B59" s="142"/>
+      <c r="B59" s="144"/>
       <c r="C59" s="63"/>
       <c r="D59" s="102" t="s">
         <v>461</v>
@@ -17733,10 +17918,10 @@
       <c r="F59" s="63"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A60" s="141" t="s">
+      <c r="A60" s="143" t="s">
         <v>408</v>
       </c>
-      <c r="B60" s="142"/>
+      <c r="B60" s="144"/>
       <c r="C60" s="67">
         <v>172457231.5</v>
       </c>
@@ -17751,17 +17936,17 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
-      <c r="A61" s="139" t="s">
+      <c r="A61" s="149" t="s">
         <v>409</v>
       </c>
-      <c r="B61" s="140"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="63"/>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="63"/>
     </row>
     <row r="62" spans="1:6" ht="22.5">
-      <c r="A62" s="143" t="s">
+      <c r="A62" s="151" t="s">
         <v>463</v>
       </c>
       <c r="B62" s="69" t="s">
@@ -17781,7 +17966,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="22.5">
-      <c r="A63" s="144"/>
+      <c r="A63" s="152"/>
       <c r="B63" s="69" t="s">
         <v>411</v>
       </c>
@@ -17799,7 +17984,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="33.75">
-      <c r="A64" s="144"/>
+      <c r="A64" s="152"/>
       <c r="B64" s="69" t="s">
         <v>412</v>
       </c>
@@ -17817,7 +18002,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="33.75">
-      <c r="A65" s="144"/>
+      <c r="A65" s="152"/>
       <c r="B65" s="69" t="s">
         <v>413</v>
       </c>
@@ -17835,7 +18020,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="33.75">
-      <c r="A66" s="144"/>
+      <c r="A66" s="152"/>
       <c r="B66" s="69" t="s">
         <v>464</v>
       </c>
@@ -17853,7 +18038,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="22.5">
-      <c r="A67" s="144"/>
+      <c r="A67" s="152"/>
       <c r="B67" s="69" t="s">
         <v>415</v>
       </c>
@@ -17871,7 +18056,7 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="145"/>
+      <c r="A68" s="153"/>
       <c r="B68" s="69" t="s">
         <v>417</v>
       </c>
@@ -17889,10 +18074,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="141" t="s">
+      <c r="A69" s="143" t="s">
         <v>418</v>
       </c>
-      <c r="B69" s="142"/>
+      <c r="B69" s="144"/>
       <c r="C69" s="67">
         <v>174177931.5</v>
       </c>
@@ -17907,10 +18092,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A70" s="141" t="s">
+      <c r="A70" s="143" t="s">
         <v>419</v>
       </c>
-      <c r="B70" s="142"/>
+      <c r="B70" s="144"/>
       <c r="C70" s="67">
         <v>94811551.5</v>
       </c>
@@ -17925,20 +18110,20 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="A71" s="139" t="s">
+      <c r="A71" s="149" t="s">
         <v>409</v>
       </c>
-      <c r="B71" s="140"/>
+      <c r="B71" s="150"/>
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
       <c r="E71" s="63"/>
       <c r="F71" s="63"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1">
-      <c r="A72" s="139" t="s">
+      <c r="A72" s="149" t="s">
         <v>465</v>
       </c>
-      <c r="B72" s="140"/>
+      <c r="B72" s="150"/>
       <c r="C72" s="64">
         <v>63052284.5</v>
       </c>
@@ -17953,10 +18138,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" customHeight="1">
-      <c r="A73" s="139" t="s">
+      <c r="A73" s="149" t="s">
         <v>466</v>
       </c>
-      <c r="B73" s="140"/>
+      <c r="B73" s="150"/>
       <c r="C73" s="64">
         <v>31759267</v>
       </c>
@@ -17971,10 +18156,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A74" s="141" t="s">
+      <c r="A74" s="143" t="s">
         <v>423</v>
       </c>
-      <c r="B74" s="142"/>
+      <c r="B74" s="144"/>
       <c r="C74" s="67">
         <v>77742.899999999994</v>
       </c>
@@ -17989,10 +18174,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A75" s="141" t="s">
+      <c r="A75" s="143" t="s">
         <v>424</v>
       </c>
-      <c r="B75" s="142"/>
+      <c r="B75" s="144"/>
       <c r="C75" s="66">
         <v>0</v>
       </c>
@@ -18007,10 +18192,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A76" s="141" t="s">
+      <c r="A76" s="143" t="s">
         <v>425</v>
       </c>
-      <c r="B76" s="142"/>
+      <c r="B76" s="144"/>
       <c r="C76" s="67">
         <v>269067225.89999998</v>
       </c>
@@ -18025,10 +18210,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1">
-      <c r="A77" s="139" t="s">
+      <c r="A77" s="149" t="s">
         <v>467</v>
       </c>
-      <c r="B77" s="140"/>
+      <c r="B77" s="150"/>
       <c r="C77" s="63">
         <v>0</v>
       </c>
@@ -18039,10 +18224,10 @@
       <c r="F77" s="63"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A78" s="141" t="s">
+      <c r="A78" s="143" t="s">
         <v>427</v>
       </c>
-      <c r="B78" s="142"/>
+      <c r="B78" s="144"/>
       <c r="C78" s="67">
         <v>269067225.89999998</v>
       </c>
@@ -18057,20 +18242,20 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A79" s="141" t="s">
+      <c r="A79" s="143" t="s">
         <v>428</v>
       </c>
-      <c r="B79" s="142"/>
+      <c r="B79" s="144"/>
       <c r="C79" s="63"/>
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="63"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A80" s="141" t="s">
+      <c r="A80" s="143" t="s">
         <v>429</v>
       </c>
-      <c r="B80" s="142"/>
+      <c r="B80" s="144"/>
       <c r="C80" s="67">
         <v>211620219</v>
       </c>
@@ -18085,20 +18270,20 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="15" customHeight="1">
-      <c r="A81" s="139" t="s">
+      <c r="A81" s="149" t="s">
         <v>430</v>
       </c>
-      <c r="B81" s="140"/>
+      <c r="B81" s="150"/>
       <c r="C81" s="63"/>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="63"/>
     </row>
     <row r="82" spans="1:6" ht="45" customHeight="1">
-      <c r="A82" s="139" t="s">
+      <c r="A82" s="149" t="s">
         <v>468</v>
       </c>
-      <c r="B82" s="140"/>
+      <c r="B82" s="150"/>
       <c r="C82" s="64">
         <v>200710217</v>
       </c>
@@ -18113,10 +18298,10 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="60" customHeight="1">
-      <c r="A83" s="139" t="s">
+      <c r="A83" s="149" t="s">
         <v>469</v>
       </c>
-      <c r="B83" s="140"/>
+      <c r="B83" s="150"/>
       <c r="C83" s="64">
         <v>5013926.3</v>
       </c>
@@ -18131,10 +18316,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="60" customHeight="1">
-      <c r="A84" s="139" t="s">
+      <c r="A84" s="149" t="s">
         <v>470</v>
       </c>
-      <c r="B84" s="140"/>
+      <c r="B84" s="150"/>
       <c r="C84" s="64">
         <v>86833.3</v>
       </c>
@@ -18149,10 +18334,10 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="60" customHeight="1">
-      <c r="A85" s="139" t="s">
+      <c r="A85" s="149" t="s">
         <v>471</v>
       </c>
-      <c r="B85" s="140"/>
+      <c r="B85" s="150"/>
       <c r="C85" s="64">
         <v>105421.4</v>
       </c>
@@ -18167,10 +18352,10 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="60" customHeight="1">
-      <c r="A86" s="139" t="s">
+      <c r="A86" s="149" t="s">
         <v>472</v>
       </c>
-      <c r="B86" s="140"/>
+      <c r="B86" s="150"/>
       <c r="C86" s="64">
         <v>3134532.7</v>
       </c>
@@ -18185,10 +18370,10 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="30" customHeight="1">
-      <c r="A87" s="139" t="s">
+      <c r="A87" s="149" t="s">
         <v>473</v>
       </c>
-      <c r="B87" s="140"/>
+      <c r="B87" s="150"/>
       <c r="C87" s="64">
         <v>102257.3</v>
       </c>
@@ -18203,10 +18388,10 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" customHeight="1">
-      <c r="A88" s="139" t="s">
+      <c r="A88" s="149" t="s">
         <v>474</v>
       </c>
-      <c r="B88" s="140"/>
+      <c r="B88" s="150"/>
       <c r="C88" s="64">
         <v>109038.1</v>
       </c>
@@ -18221,10 +18406,10 @@
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" customHeight="1">
-      <c r="A89" s="139" t="s">
+      <c r="A89" s="149" t="s">
         <v>475</v>
       </c>
-      <c r="B89" s="140"/>
+      <c r="B89" s="150"/>
       <c r="C89" s="64">
         <v>2245652.7000000002</v>
       </c>
@@ -18239,10 +18424,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
-      <c r="A90" s="139" t="s">
+      <c r="A90" s="149" t="s">
         <v>476</v>
       </c>
-      <c r="B90" s="140"/>
+      <c r="B90" s="150"/>
       <c r="C90" s="64">
         <v>2623.8</v>
       </c>
@@ -18257,10 +18442,10 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" customHeight="1">
-      <c r="A91" s="139" t="s">
+      <c r="A91" s="149" t="s">
         <v>477</v>
       </c>
-      <c r="B91" s="140"/>
+      <c r="B91" s="150"/>
       <c r="C91" s="64">
         <v>39785.5</v>
       </c>
@@ -18275,10 +18460,10 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="45" customHeight="1">
-      <c r="A92" s="139" t="s">
+      <c r="A92" s="149" t="s">
         <v>478</v>
       </c>
-      <c r="B92" s="140"/>
+      <c r="B92" s="150"/>
       <c r="C92" s="64">
         <v>69930.899999999994</v>
       </c>
@@ -18293,10 +18478,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A93" s="141" t="s">
+      <c r="A93" s="143" t="s">
         <v>442</v>
       </c>
-      <c r="B93" s="142"/>
+      <c r="B93" s="144"/>
       <c r="C93" s="67">
         <v>55648564</v>
       </c>
@@ -18311,20 +18496,20 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="15" customHeight="1">
-      <c r="A94" s="139" t="s">
+      <c r="A94" s="149" t="s">
         <v>443</v>
       </c>
-      <c r="B94" s="140"/>
+      <c r="B94" s="150"/>
       <c r="C94" s="63"/>
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="63"/>
     </row>
     <row r="95" spans="1:6" ht="30" customHeight="1">
-      <c r="A95" s="139" t="s">
+      <c r="A95" s="149" t="s">
         <v>479</v>
       </c>
-      <c r="B95" s="140"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="64">
         <v>55648564</v>
       </c>
@@ -18339,10 +18524,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A96" s="141" t="s">
+      <c r="A96" s="143" t="s">
         <v>445</v>
       </c>
-      <c r="B96" s="142"/>
+      <c r="B96" s="144"/>
       <c r="C96" s="67">
         <v>77742.899999999994</v>
       </c>
@@ -18357,10 +18542,10 @@
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A97" s="141" t="s">
+      <c r="A97" s="143" t="s">
         <v>447</v>
       </c>
-      <c r="B97" s="142"/>
+      <c r="B97" s="144"/>
       <c r="C97" s="67">
         <v>267346525.90000001</v>
       </c>
@@ -18375,10 +18560,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A98" s="141" t="s">
+      <c r="A98" s="143" t="s">
         <v>448</v>
       </c>
-      <c r="B98" s="142"/>
+      <c r="B98" s="144"/>
       <c r="C98" s="67">
         <v>1720700</v>
       </c>
@@ -18451,26 +18636,26 @@
       <c r="F107" s="52"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
-      <c r="A108" s="133"/>
-      <c r="B108" s="134"/>
+      <c r="A108" s="145"/>
+      <c r="B108" s="146"/>
       <c r="C108" s="71" t="s">
         <v>403</v>
       </c>
-      <c r="D108" s="146" t="s">
+      <c r="D108" s="128" t="s">
         <v>404</v>
       </c>
-      <c r="E108" s="148" t="s">
+      <c r="E108" s="130" t="s">
         <v>399</v>
       </c>
-      <c r="F108" s="149"/>
+      <c r="F108" s="131"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="135"/>
-      <c r="B109" s="136"/>
+      <c r="A109" s="147"/>
+      <c r="B109" s="148"/>
       <c r="C109" s="72" t="s">
         <v>482</v>
       </c>
-      <c r="D109" s="147"/>
+      <c r="D109" s="129"/>
       <c r="E109" s="53" t="s">
         <v>405</v>
       </c>
@@ -18479,10 +18664,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
-      <c r="A110" s="129" t="s">
+      <c r="A110" s="138" t="s">
         <v>406</v>
       </c>
-      <c r="B110" s="130"/>
+      <c r="B110" s="139"/>
       <c r="C110" s="64">
         <v>840600</v>
       </c>
@@ -18497,20 +18682,20 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A111" s="131" t="s">
+      <c r="A111" s="134" t="s">
         <v>407</v>
       </c>
-      <c r="B111" s="132"/>
+      <c r="B111" s="135"/>
       <c r="C111" s="63"/>
       <c r="D111" s="63"/>
       <c r="E111" s="63"/>
       <c r="F111" s="63"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A112" s="131" t="s">
+      <c r="A112" s="134" t="s">
         <v>483</v>
       </c>
-      <c r="B112" s="132"/>
+      <c r="B112" s="135"/>
       <c r="C112" s="67">
         <v>109967928.40000001</v>
       </c>
@@ -18525,17 +18710,17 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
-      <c r="A113" s="129" t="s">
+      <c r="A113" s="138" t="s">
         <v>409</v>
       </c>
-      <c r="B113" s="130"/>
+      <c r="B113" s="139"/>
       <c r="C113" s="63"/>
       <c r="D113" s="63"/>
       <c r="E113" s="63"/>
       <c r="F113" s="63"/>
     </row>
     <row r="114" spans="1:6" ht="22.5">
-      <c r="A114" s="150" t="s">
+      <c r="A114" s="140" t="s">
         <v>463</v>
       </c>
       <c r="B114" s="56" t="s">
@@ -18555,7 +18740,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="22.5">
-      <c r="A115" s="151"/>
+      <c r="A115" s="141"/>
       <c r="B115" s="56" t="s">
         <v>411</v>
       </c>
@@ -18573,7 +18758,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="33.75">
-      <c r="A116" s="151"/>
+      <c r="A116" s="141"/>
       <c r="B116" s="56" t="s">
         <v>412</v>
       </c>
@@ -18591,7 +18776,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="33.75">
-      <c r="A117" s="151"/>
+      <c r="A117" s="141"/>
       <c r="B117" s="56" t="s">
         <v>484</v>
       </c>
@@ -18609,7 +18794,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="33.75">
-      <c r="A118" s="151"/>
+      <c r="A118" s="141"/>
       <c r="B118" s="56" t="s">
         <v>485</v>
       </c>
@@ -18627,7 +18812,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="22.5">
-      <c r="A119" s="151"/>
+      <c r="A119" s="141"/>
       <c r="B119" s="56" t="s">
         <v>415</v>
       </c>
@@ -18645,7 +18830,7 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="152"/>
+      <c r="A120" s="142"/>
       <c r="B120" s="56" t="s">
         <v>417</v>
       </c>
@@ -18663,10 +18848,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A121" s="131" t="s">
+      <c r="A121" s="134" t="s">
         <v>486</v>
       </c>
-      <c r="B121" s="132"/>
+      <c r="B121" s="135"/>
       <c r="C121" s="67">
         <v>110808528.40000001</v>
       </c>
@@ -18681,10 +18866,10 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="78.75" customHeight="1">
-      <c r="A122" s="131" t="s">
+      <c r="A122" s="134" t="s">
         <v>487</v>
       </c>
-      <c r="B122" s="132"/>
+      <c r="B122" s="135"/>
       <c r="C122" s="67">
         <v>142586226.59999999</v>
       </c>
@@ -18699,10 +18884,10 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="63" customHeight="1">
-      <c r="A123" s="131" t="s">
+      <c r="A123" s="134" t="s">
         <v>488</v>
       </c>
-      <c r="B123" s="132"/>
+      <c r="B123" s="135"/>
       <c r="C123" s="67">
         <v>1400</v>
       </c>
@@ -18717,10 +18902,10 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A124" s="131" t="s">
+      <c r="A124" s="134" t="s">
         <v>489</v>
       </c>
-      <c r="B124" s="132"/>
+      <c r="B124" s="135"/>
       <c r="C124" s="67">
         <v>1500000</v>
       </c>
@@ -18735,10 +18920,10 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A125" s="131" t="s">
+      <c r="A125" s="134" t="s">
         <v>490</v>
       </c>
-      <c r="B125" s="132"/>
+      <c r="B125" s="135"/>
       <c r="C125" s="67">
         <v>10448.6</v>
       </c>
@@ -18753,10 +18938,10 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A126" s="131" t="s">
+      <c r="A126" s="134" t="s">
         <v>491</v>
       </c>
-      <c r="B126" s="132"/>
+      <c r="B126" s="135"/>
       <c r="C126" s="66">
         <v>0</v>
       </c>
@@ -18771,10 +18956,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A127" s="131" t="s">
+      <c r="A127" s="134" t="s">
         <v>493</v>
       </c>
-      <c r="B127" s="132"/>
+      <c r="B127" s="135"/>
       <c r="C127" s="67">
         <v>254906603.59999999</v>
       </c>
@@ -18803,10 +18988,10 @@
       <c r="F128" s="63"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A129" s="131" t="s">
+      <c r="A129" s="134" t="s">
         <v>427</v>
       </c>
-      <c r="B129" s="132"/>
+      <c r="B129" s="135"/>
       <c r="C129" s="67">
         <v>269067225.89999998</v>
       </c>
@@ -18839,20 +19024,20 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A131" s="131" t="s">
+      <c r="A131" s="134" t="s">
         <v>428</v>
       </c>
-      <c r="B131" s="132"/>
+      <c r="B131" s="135"/>
       <c r="C131" s="63"/>
       <c r="D131" s="63"/>
       <c r="E131" s="63"/>
       <c r="F131" s="63"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A132" s="131" t="s">
+      <c r="A132" s="134" t="s">
         <v>429</v>
       </c>
-      <c r="B132" s="132"/>
+      <c r="B132" s="135"/>
       <c r="C132" s="67">
         <v>199564846.19999999</v>
       </c>
@@ -18867,10 +19052,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1">
-      <c r="A133" s="129" t="s">
+      <c r="A133" s="138" t="s">
         <v>430</v>
       </c>
-      <c r="B133" s="130"/>
+      <c r="B133" s="139"/>
       <c r="C133" s="63"/>
       <c r="D133" s="63"/>
       <c r="E133" s="63"/>
@@ -19037,10 +19222,10 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="63" customHeight="1">
-      <c r="A142" s="131" t="s">
+      <c r="A142" s="134" t="s">
         <v>501</v>
       </c>
-      <c r="B142" s="132"/>
+      <c r="B142" s="135"/>
       <c r="C142" s="67">
         <v>54489308.799999997</v>
       </c>
@@ -19055,10 +19240,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="63" customHeight="1">
-      <c r="A143" s="131" t="s">
+      <c r="A143" s="134" t="s">
         <v>502</v>
       </c>
-      <c r="B143" s="132"/>
+      <c r="B143" s="135"/>
       <c r="C143" s="67">
         <v>1400</v>
       </c>
@@ -19073,10 +19258,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A144" s="131" t="s">
+      <c r="A144" s="134" t="s">
         <v>445</v>
       </c>
-      <c r="B144" s="132"/>
+      <c r="B144" s="135"/>
       <c r="C144" s="67">
         <v>10448.6</v>
       </c>
@@ -19091,10 +19276,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A145" s="131" t="s">
+      <c r="A145" s="134" t="s">
         <v>447</v>
       </c>
-      <c r="B145" s="132"/>
+      <c r="B145" s="135"/>
       <c r="C145" s="67">
         <v>254066003.59999999</v>
       </c>
@@ -19109,10 +19294,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A146" s="131" t="s">
+      <c r="A146" s="134" t="s">
         <v>448</v>
       </c>
-      <c r="B146" s="132"/>
+      <c r="B146" s="135"/>
       <c r="C146" s="67">
         <v>840600</v>
       </c>
@@ -19193,23 +19378,23 @@
       <c r="F157" s="52"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1">
-      <c r="A158" s="153"/>
-      <c r="B158" s="154"/>
-      <c r="C158" s="157" t="s">
+      <c r="A158" s="124"/>
+      <c r="B158" s="125"/>
+      <c r="C158" s="136" t="s">
         <v>505</v>
       </c>
       <c r="D158" s="74" t="s">
         <v>458</v>
       </c>
-      <c r="E158" s="159" t="s">
+      <c r="E158" s="121" t="s">
         <v>399</v>
       </c>
-      <c r="F158" s="160"/>
+      <c r="F158" s="123"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="155"/>
-      <c r="B159" s="156"/>
-      <c r="C159" s="158"/>
+      <c r="A159" s="126"/>
+      <c r="B159" s="127"/>
+      <c r="C159" s="137"/>
       <c r="D159" s="75" t="s">
         <v>459</v>
       </c>
@@ -19221,10 +19406,10 @@
       </c>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1">
-      <c r="A160" s="161" t="s">
+      <c r="A160" s="118" t="s">
         <v>406</v>
       </c>
-      <c r="B160" s="162"/>
+      <c r="B160" s="119"/>
       <c r="C160" s="77">
         <v>840600</v>
       </c>
@@ -19239,20 +19424,20 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A161" s="163" t="s">
+      <c r="A161" s="132" t="s">
         <v>407</v>
       </c>
-      <c r="B161" s="164"/>
+      <c r="B161" s="133"/>
       <c r="C161" s="76"/>
       <c r="D161" s="76"/>
       <c r="E161" s="76"/>
       <c r="F161" s="76"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A162" s="163" t="s">
+      <c r="A162" s="132" t="s">
         <v>483</v>
       </c>
-      <c r="B162" s="164"/>
+      <c r="B162" s="133"/>
       <c r="C162" s="79">
         <v>161981083.09999999</v>
       </c>
@@ -19267,10 +19452,10 @@
       </c>
     </row>
     <row r="163" spans="1:6" ht="15" customHeight="1">
-      <c r="A163" s="161" t="s">
+      <c r="A163" s="118" t="s">
         <v>409</v>
       </c>
-      <c r="B163" s="162"/>
+      <c r="B163" s="119"/>
       <c r="C163" s="76"/>
       <c r="D163" s="76"/>
       <c r="E163" s="76"/>
@@ -19403,10 +19588,10 @@
       </c>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A171" s="163" t="s">
+      <c r="A171" s="132" t="s">
         <v>486</v>
       </c>
-      <c r="B171" s="164"/>
+      <c r="B171" s="133"/>
       <c r="C171" s="79">
         <v>162821683.09999999</v>
       </c>
@@ -19421,10 +19606,10 @@
       </c>
     </row>
     <row r="172" spans="1:6" ht="63" customHeight="1">
-      <c r="A172" s="163" t="s">
+      <c r="A172" s="132" t="s">
         <v>508</v>
       </c>
-      <c r="B172" s="164"/>
+      <c r="B172" s="133"/>
       <c r="C172" s="79">
         <v>133458626.3</v>
       </c>
@@ -19439,10 +19624,10 @@
       </c>
     </row>
     <row r="173" spans="1:6" ht="63" customHeight="1">
-      <c r="A173" s="163" t="s">
+      <c r="A173" s="132" t="s">
         <v>509</v>
       </c>
-      <c r="B173" s="164"/>
+      <c r="B173" s="133"/>
       <c r="C173" s="79">
         <v>1400</v>
       </c>
@@ -19457,10 +19642,10 @@
       </c>
     </row>
     <row r="174" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A174" s="163" t="s">
+      <c r="A174" s="132" t="s">
         <v>490</v>
       </c>
-      <c r="B174" s="164"/>
+      <c r="B174" s="133"/>
       <c r="C174" s="82">
         <v>0</v>
       </c>
@@ -19473,10 +19658,10 @@
       <c r="F174" s="76"/>
     </row>
     <row r="175" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A175" s="163" t="s">
+      <c r="A175" s="132" t="s">
         <v>491</v>
       </c>
-      <c r="B175" s="164"/>
+      <c r="B175" s="133"/>
       <c r="C175" s="82">
         <v>0</v>
       </c>
@@ -19489,10 +19674,10 @@
       <c r="F175" s="76"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A176" s="163" t="s">
+      <c r="A176" s="132" t="s">
         <v>510</v>
       </c>
-      <c r="B176" s="164"/>
+      <c r="B176" s="133"/>
       <c r="C176" s="79">
         <v>296281709.39999998</v>
       </c>
@@ -19507,20 +19692,20 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A177" s="163" t="s">
+      <c r="A177" s="132" t="s">
         <v>428</v>
       </c>
-      <c r="B177" s="164"/>
+      <c r="B177" s="133"/>
       <c r="C177" s="76"/>
       <c r="D177" s="76"/>
       <c r="E177" s="76"/>
       <c r="F177" s="76"/>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A178" s="163" t="s">
+      <c r="A178" s="132" t="s">
         <v>429</v>
       </c>
-      <c r="B178" s="164"/>
+      <c r="B178" s="133"/>
       <c r="C178" s="79">
         <v>228289426.40000001</v>
       </c>
@@ -19535,10 +19720,10 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="15" customHeight="1">
-      <c r="A179" s="161" t="s">
+      <c r="A179" s="118" t="s">
         <v>430</v>
       </c>
-      <c r="B179" s="162"/>
+      <c r="B179" s="119"/>
       <c r="C179" s="76"/>
       <c r="D179" s="76"/>
       <c r="E179" s="76"/>
@@ -19705,10 +19890,10 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="63" customHeight="1">
-      <c r="A188" s="163" t="s">
+      <c r="A188" s="132" t="s">
         <v>513</v>
       </c>
-      <c r="B188" s="164"/>
+      <c r="B188" s="133"/>
       <c r="C188" s="79">
         <v>67139483.5</v>
       </c>
@@ -19723,10 +19908,10 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="63" customHeight="1">
-      <c r="A189" s="163" t="s">
+      <c r="A189" s="132" t="s">
         <v>502</v>
       </c>
-      <c r="B189" s="164"/>
+      <c r="B189" s="133"/>
       <c r="C189" s="79">
         <v>1400</v>
       </c>
@@ -19741,10 +19926,10 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A190" s="163" t="s">
+      <c r="A190" s="132" t="s">
         <v>445</v>
       </c>
-      <c r="B190" s="164"/>
+      <c r="B190" s="133"/>
       <c r="C190" s="82">
         <v>0</v>
       </c>
@@ -19757,10 +19942,10 @@
       <c r="F190" s="76"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A191" s="163" t="s">
+      <c r="A191" s="132" t="s">
         <v>447</v>
       </c>
-      <c r="B191" s="164"/>
+      <c r="B191" s="133"/>
       <c r="C191" s="79">
         <v>295430309.89999998</v>
       </c>
@@ -19775,10 +19960,10 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A192" s="163" t="s">
+      <c r="A192" s="132" t="s">
         <v>448</v>
       </c>
-      <c r="B192" s="164"/>
+      <c r="B192" s="133"/>
       <c r="C192" s="79">
         <v>851399.5</v>
       </c>
@@ -19801,34 +19986,34 @@
       <c r="F193" s="52"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A196" s="165" t="s">
+      <c r="A196" s="120" t="s">
         <v>451</v>
       </c>
-      <c r="B196" s="165"/>
-      <c r="C196" s="165"/>
-      <c r="D196" s="165"/>
-      <c r="E196" s="165"/>
-      <c r="F196" s="165"/>
+      <c r="B196" s="120"/>
+      <c r="C196" s="120"/>
+      <c r="D196" s="120"/>
+      <c r="E196" s="120"/>
+      <c r="F196" s="120"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A197" s="165" t="s">
+      <c r="A197" s="120" t="s">
         <v>449</v>
       </c>
-      <c r="B197" s="165"/>
-      <c r="C197" s="165"/>
-      <c r="D197" s="165"/>
-      <c r="E197" s="165"/>
-      <c r="F197" s="165"/>
+      <c r="B197" s="120"/>
+      <c r="C197" s="120"/>
+      <c r="D197" s="120"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A198" s="165" t="s">
+      <c r="A198" s="120" t="s">
         <v>514</v>
       </c>
-      <c r="B198" s="165"/>
-      <c r="C198" s="165"/>
-      <c r="D198" s="165"/>
-      <c r="E198" s="165"/>
-      <c r="F198" s="165"/>
+      <c r="B198" s="120"/>
+      <c r="C198" s="120"/>
+      <c r="D198" s="120"/>
+      <c r="E198" s="120"/>
+      <c r="F198" s="120"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="83"/>
@@ -19839,36 +20024,36 @@
       <c r="F199" s="52"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1">
-      <c r="A200" s="159" t="s">
+      <c r="A200" s="121" t="s">
         <v>402</v>
       </c>
-      <c r="B200" s="166"/>
-      <c r="C200" s="166"/>
-      <c r="D200" s="166"/>
-      <c r="E200" s="166"/>
-      <c r="F200" s="160"/>
+      <c r="B200" s="122"/>
+      <c r="C200" s="122"/>
+      <c r="D200" s="122"/>
+      <c r="E200" s="122"/>
+      <c r="F200" s="123"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1">
-      <c r="A201" s="153"/>
-      <c r="B201" s="154"/>
+      <c r="A201" s="124"/>
+      <c r="B201" s="125"/>
       <c r="C201" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="D201" s="146" t="s">
+      <c r="D201" s="128" t="s">
         <v>404</v>
       </c>
-      <c r="E201" s="148" t="s">
+      <c r="E201" s="130" t="s">
         <v>399</v>
       </c>
-      <c r="F201" s="149"/>
+      <c r="F201" s="131"/>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="155"/>
-      <c r="B202" s="156"/>
+      <c r="A202" s="126"/>
+      <c r="B202" s="127"/>
       <c r="C202" s="85" t="s">
         <v>482</v>
       </c>
-      <c r="D202" s="147"/>
+      <c r="D202" s="129"/>
       <c r="E202" s="53" t="s">
         <v>405</v>
       </c>
@@ -19877,10 +20062,10 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1">
-      <c r="A203" s="161" t="s">
+      <c r="A203" s="118" t="s">
         <v>515</v>
       </c>
-      <c r="B203" s="162"/>
+      <c r="B203" s="119"/>
       <c r="C203" s="50">
         <v>1772540.9</v>
       </c>
@@ -19895,20 +20080,20 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1">
-      <c r="A204" s="161" t="s">
+      <c r="A204" s="118" t="s">
         <v>407</v>
       </c>
-      <c r="B204" s="162"/>
+      <c r="B204" s="119"/>
       <c r="C204" s="53"/>
       <c r="D204" s="53"/>
       <c r="E204" s="53"/>
       <c r="F204" s="53"/>
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1">
-      <c r="A205" s="161" t="s">
+      <c r="A205" s="118" t="s">
         <v>516</v>
       </c>
-      <c r="B205" s="162"/>
+      <c r="B205" s="119"/>
       <c r="C205" s="50">
         <v>206921338.80000001</v>
       </c>
@@ -19923,10 +20108,10 @@
       </c>
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1">
-      <c r="A206" s="161" t="s">
+      <c r="A206" s="118" t="s">
         <v>409</v>
       </c>
-      <c r="B206" s="162"/>
+      <c r="B206" s="119"/>
       <c r="C206" s="53"/>
       <c r="D206" s="53"/>
       <c r="E206" s="53"/>
@@ -20023,10 +20208,10 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1">
-      <c r="A212" s="161" t="s">
+      <c r="A212" s="118" t="s">
         <v>418</v>
       </c>
-      <c r="B212" s="162"/>
+      <c r="B212" s="119"/>
       <c r="C212" s="50">
         <v>208693879.69999999</v>
       </c>
@@ -20041,10 +20226,10 @@
       </c>
     </row>
     <row r="213" spans="1:6" ht="60" customHeight="1">
-      <c r="A213" s="161" t="s">
+      <c r="A213" s="118" t="s">
         <v>521</v>
       </c>
-      <c r="B213" s="162"/>
+      <c r="B213" s="119"/>
       <c r="C213" s="50">
         <v>150090990.09999999</v>
       </c>
@@ -20113,10 +20298,10 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="30" customHeight="1">
-      <c r="A217" s="161" t="s">
+      <c r="A217" s="118" t="s">
         <v>490</v>
       </c>
-      <c r="B217" s="162"/>
+      <c r="B217" s="119"/>
       <c r="C217" s="53">
         <v>0</v>
       </c>
@@ -20129,10 +20314,10 @@
       <c r="F217" s="53"/>
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1">
-      <c r="A218" s="161" t="s">
+      <c r="A218" s="118" t="s">
         <v>510</v>
       </c>
-      <c r="B218" s="162"/>
+      <c r="B218" s="119"/>
       <c r="C218" s="50">
         <v>358784869.80000001</v>
       </c>
@@ -20161,20 +20346,20 @@
       <c r="F219" s="53"/>
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1">
-      <c r="A220" s="161" t="s">
+      <c r="A220" s="118" t="s">
         <v>428</v>
       </c>
-      <c r="B220" s="162"/>
+      <c r="B220" s="119"/>
       <c r="C220" s="53"/>
       <c r="D220" s="53"/>
       <c r="E220" s="53"/>
       <c r="F220" s="53"/>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1">
-      <c r="A221" s="161" t="s">
+      <c r="A221" s="118" t="s">
         <v>525</v>
       </c>
-      <c r="B221" s="162"/>
+      <c r="B221" s="119"/>
       <c r="C221" s="50">
         <v>254230341.90000001</v>
       </c>
@@ -20189,10 +20374,10 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="15" customHeight="1">
-      <c r="A222" s="161" t="s">
+      <c r="A222" s="118" t="s">
         <v>430</v>
       </c>
-      <c r="B222" s="162"/>
+      <c r="B222" s="119"/>
       <c r="C222" s="53"/>
       <c r="D222" s="53"/>
       <c r="E222" s="53"/>
@@ -20357,10 +20542,10 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="60" customHeight="1">
-      <c r="A231" s="161" t="s">
+      <c r="A231" s="118" t="s">
         <v>530</v>
       </c>
-      <c r="B231" s="162"/>
+      <c r="B231" s="119"/>
       <c r="C231" s="50">
         <v>104454672.2</v>
       </c>
@@ -20393,10 +20578,10 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="15" customHeight="1">
-      <c r="A233" s="161" t="s">
+      <c r="A233" s="118" t="s">
         <v>447</v>
       </c>
-      <c r="B233" s="162"/>
+      <c r="B233" s="119"/>
       <c r="C233" s="50">
         <v>358685014.10000002</v>
       </c>
@@ -20411,10 +20596,10 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1">
-      <c r="A234" s="161" t="s">
+      <c r="A234" s="118" t="s">
         <v>532</v>
       </c>
-      <c r="B234" s="162"/>
+      <c r="B234" s="119"/>
       <c r="C234" s="50">
         <v>99855.7</v>
       </c>
@@ -20430,6 +20615,120 @@
     </row>
   </sheetData>
   <mergeCells count="128">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A201:B202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A196:F196"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A234:B234"/>
     <mergeCell ref="A217:B217"/>
@@ -20444,120 +20743,6 @@
     <mergeCell ref="A206:B206"/>
     <mergeCell ref="A212:B212"/>
     <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A201:B202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:A120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20567,8 +20752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21830,23 +22015,23 @@
       <c r="F78" s="52"/>
     </row>
     <row r="79" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A79" s="173" t="s">
+      <c r="A79" s="175" t="s">
         <v>613</v>
       </c>
-      <c r="B79" s="174"/>
-      <c r="C79" s="174"/>
-      <c r="D79" s="174"/>
-      <c r="E79" s="175"/>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
+      <c r="E79" s="177"/>
       <c r="F79" s="52"/>
     </row>
     <row r="80" spans="1:6" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A80" s="176" t="s">
+      <c r="A80" s="178" t="s">
         <v>614</v>
       </c>
-      <c r="B80" s="177"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="177"/>
-      <c r="E80" s="178"/>
+      <c r="B80" s="179"/>
+      <c r="C80" s="179"/>
+      <c r="D80" s="179"/>
+      <c r="E80" s="180"/>
       <c r="F80" s="52"/>
     </row>
     <row r="81" spans="1:6" ht="21.75" customHeight="1" thickBot="1">
@@ -22002,10 +22187,10 @@
       <c r="F89" s="52"/>
     </row>
     <row r="90" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A90" s="179" t="s">
+      <c r="A90" s="181" t="s">
         <v>625</v>
       </c>
-      <c r="B90" s="181" t="s">
+      <c r="B90" s="173" t="s">
         <v>626</v>
       </c>
       <c r="C90" s="183">
@@ -22020,8 +22205,8 @@
       <c r="F90" s="52"/>
     </row>
     <row r="91" spans="1:6" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A91" s="180"/>
-      <c r="B91" s="182"/>
+      <c r="A91" s="182"/>
+      <c r="B91" s="174"/>
       <c r="C91" s="184"/>
       <c r="D91" s="184"/>
       <c r="E91" s="100" t="s">
@@ -22440,10 +22625,10 @@
         <v>672</v>
       </c>
       <c r="D116" s="172"/>
-      <c r="E116" s="181" t="s">
+      <c r="E116" s="173" t="s">
         <v>673</v>
       </c>
-      <c r="F116" s="181" t="s">
+      <c r="F116" s="173" t="s">
         <v>674</v>
       </c>
     </row>
@@ -22460,8 +22645,8 @@
       <c r="D117" s="90" t="s">
         <v>676</v>
       </c>
-      <c r="E117" s="182"/>
-      <c r="F117" s="182"/>
+      <c r="E117" s="174"/>
+      <c r="F117" s="174"/>
     </row>
     <row r="118" spans="1:6" ht="21.75" customHeight="1" thickBot="1">
       <c r="A118" s="88">
@@ -22759,14 +22944,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
     <mergeCell ref="A114:F114"/>
     <mergeCell ref="A48:D48"/>
     <mergeCell ref="A61:D61"/>
@@ -22779,6 +22956,14 @@
     <mergeCell ref="C90:C91"/>
     <mergeCell ref="D90:D91"/>
     <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="https://zakon.rada.gov.ua/rada/show/104-2017-%D0%BF"/>
